--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="766">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,14 +226,6 @@
   </si>
   <si>
     <t>内容引用rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用slot_modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用global_modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1155,19 +1147,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容引用带匹配的slot_modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"tinghuaju",
 "content":"&lt;ting{device@=买}&gt;话剧",
 "corpus":"听话剧",
 "answer":"null",
 "msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用带匹配的globle_modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4508,6 +4492,26 @@
   </si>
   <si>
     <t>大洋洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用slot_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用slot_float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用带匹配的slot_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用global_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用带匹配的globle_modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4935,16 +4939,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4952,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4966,13 +4970,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4980,13 +4984,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4994,83 +4998,83 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5078,27 +5082,27 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5106,55 +5110,55 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5162,139 +5166,139 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5302,13 +5306,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5316,13 +5320,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5330,139 +5334,139 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5470,13 +5474,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5484,13 +5488,13 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5518,16 +5522,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5535,27 +5539,27 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5563,13 +5567,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5577,13 +5581,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5591,125 +5595,125 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5717,111 +5721,111 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5829,41 +5833,41 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5871,83 +5875,83 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5955,41 +5959,41 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5997,41 +6001,41 @@
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6039,13 +6043,13 @@
         <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6073,16 +6077,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6090,27 +6094,27 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6118,13 +6122,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6132,13 +6136,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6146,69 +6150,69 @@
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6216,13 +6220,13 @@
         <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6230,13 +6234,13 @@
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6244,13 +6248,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6258,13 +6262,13 @@
         <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6272,13 +6276,13 @@
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6286,13 +6290,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6300,13 +6304,13 @@
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6314,13 +6318,13 @@
         <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6328,195 +6332,195 @@
         <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6524,41 +6528,41 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6566,41 +6570,41 @@
         <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6608,13 +6612,13 @@
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -6628,13 +6632,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="40.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="97.25" style="4" customWidth="1"/>
@@ -6643,16 +6647,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6660,13 +6664,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6674,13 +6678,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6688,83 +6692,83 @@
         <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6772,69 +6776,69 @@
         <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6842,27 +6846,27 @@
         <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6870,965 +6874,965 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>667</v>
+        <v>762</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>761</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>209</v>
+        <v>763</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>764</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>211</v>
+        <v>765</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -7856,16 +7860,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -7873,27 +7877,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -7901,27 +7905,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -7929,27 +7933,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -7957,937 +7961,937 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -8916,7 +8920,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>28</v>
@@ -8927,16 +8931,16 @@
     </row>
     <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8944,13 +8948,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8963,7 +8967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -8977,265 +8981,265 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -9243,13 +9247,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -9257,282 +9261,282 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
         <v>305</v>
       </c>
-      <c r="B24" t="s">
-        <v>309</v>
-      </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
         <v>332</v>
       </c>
-      <c r="C38" t="s">
-        <v>336</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -9558,856 +9562,856 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -10433,324 +10437,324 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="B5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="-45" windowWidth="20430" windowHeight="11085" activeTab="10"/>
+    <workbookView xWindow="9240" yWindow="-45" windowWidth="20430" windowHeight="11085" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="876">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,10 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人物+歌手(自定义)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1165,46 +1161,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地点+景点（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲+热门歌曲（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专辑+热门专辑（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>歌词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>歌词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌词+国语歌词（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动（自定义）+球类运动（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引用类型为number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1213,18 +1173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你听过张学友唱的歌吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他的唱功如何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张学友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要去北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,110 +1245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东方明珠好不好玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它有什么特色小吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方明珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东风破好不好听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它是谁唱的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东风破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七里香这首歌火不火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它什么时候发布的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七里香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你听过叶惠美专辑吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶惠美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天专辑怎么样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它好听吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘不了听过没</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它是哪首歌里的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是谁是国语歌词吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它出自哪首歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是谁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽毛球是什么运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它怎么运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽毛球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>篮球是什么球类运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它怎么操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>篮球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你今年有3岁了吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,10 +1266,6 @@
   </si>
   <si>
     <t>中秋节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它有哪几首歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5602,7 +5442,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5630,7 +5470,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5649,63 +5489,63 @@
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>72</v>
@@ -5714,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5742,7 +5582,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5761,7 +5601,7 @@
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>72</v>
@@ -5770,7 +5610,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5784,21 +5624,21 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5826,26 +5666,26 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>72</v>
@@ -5854,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5868,21 +5708,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5901,7 +5741,7 @@
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>72</v>
@@ -5915,7 +5755,7 @@
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
@@ -5924,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -5980,7 +5820,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6027,16 +5867,16 @@
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6047,24 +5887,24 @@
         <v>59</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6078,7 +5918,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6145,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6189,16 +6029,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -6206,13 +6046,13 @@
         <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -6220,13 +6060,13 @@
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -6234,13 +6074,13 @@
         <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -6248,13 +6088,13 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -6262,475 +6102,335 @@
         <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" t="s">
-        <v>243</v>
+        <v>232</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>874</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" t="s">
-        <v>246</v>
+        <v>233</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>869</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" t="s">
-        <v>249</v>
+        <v>235</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>870</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>871</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" t="s">
-        <v>252</v>
+        <v>872</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" t="s">
-        <v>257</v>
+        <v>241</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" t="s">
-        <v>260</v>
+        <v>245</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" t="s">
-        <v>263</v>
+        <v>243</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" t="s">
-        <v>266</v>
+        <v>270</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" t="s">
-        <v>269</v>
+        <v>249</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="9">
-        <v>3</v>
+        <v>252</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
-        <v>914</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="9">
-        <v>5.5</v>
+        <v>255</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>909</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>910</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>911</v>
+        <v>650</v>
       </c>
       <c r="C22" t="s">
-        <v>912</v>
+        <v>257</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>913</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" t="s">
-        <v>690</v>
-      </c>
-      <c r="C32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>316</v>
-      </c>
-      <c r="B34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" t="s">
-        <v>301</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>317</v>
-      </c>
-      <c r="B35" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" t="s">
-        <v>303</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B38" t="s">
-        <v>306</v>
-      </c>
-      <c r="C38" t="s">
-        <v>311</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>315</v>
-      </c>
-      <c r="B39" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" t="s">
-        <v>311</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B40" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>317</v>
-      </c>
-      <c r="B41" t="s">
-        <v>309</v>
-      </c>
-      <c r="C41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6744,7 +6444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6758,324 +6458,324 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>863</v>
+        <v>823</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>894</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>899</v>
+        <v>859</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>900</v>
+        <v>860</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>906</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -7131,7 +6831,7 @@
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>58</v>
@@ -7140,7 +6840,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7182,68 +6882,68 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>58</v>
@@ -7252,35 +6952,35 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7313,7 +7013,7 @@
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
@@ -7322,12 +7022,12 @@
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>58</v>
@@ -7336,12 +7036,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>63</v>
@@ -7350,12 +7050,12 @@
         <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>58</v>
@@ -7364,12 +7064,12 @@
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>58</v>
@@ -7378,12 +7078,12 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>58</v>
@@ -7392,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7459,10 +7159,10 @@
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7476,7 +7176,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -7490,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -7504,21 +7204,21 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7574,7 +7274,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7686,7 +7386,7 @@
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>63</v>
@@ -7695,7 +7395,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -7742,58 +7442,58 @@
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -7807,7 +7507,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -7938,7 +7638,7 @@
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>63</v>
@@ -7947,12 +7647,12 @@
         <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>63</v>
@@ -7961,12 +7661,12 @@
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>63</v>
@@ -7975,12 +7675,12 @@
         <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>63</v>
@@ -7989,12 +7689,12 @@
         <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>63</v>
@@ -8003,12 +7703,12 @@
         <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>63</v>
@@ -8017,7 +7717,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8050,44 +7750,44 @@
     </row>
     <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8171,7 +7871,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8185,7 +7885,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8199,7 +7899,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -8284,21 +7984,21 @@
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>81</v>
@@ -8307,26 +8007,26 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>81</v>
@@ -8335,21 +8035,21 @@
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8368,7 +8068,7 @@
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>81</v>
@@ -8382,44 +8082,44 @@
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8480,7 +8180,7 @@
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>81</v>
@@ -8494,7 +8194,7 @@
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>59</v>
@@ -8503,7 +8203,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8517,12 +8217,12 @@
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>59</v>
@@ -8531,7 +8231,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8545,12 +8245,12 @@
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>59</v>
@@ -8559,12 +8259,12 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>59</v>
@@ -8573,7 +8273,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8592,7 +8292,7 @@
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>81</v>
@@ -8615,12 +8315,12 @@
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>59</v>
@@ -8629,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8643,12 +8343,12 @@
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>59</v>
@@ -8657,7 +8357,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8671,12 +8371,12 @@
         <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -8685,7 +8385,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8699,12 +8399,12 @@
         <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>59</v>
@@ -8713,12 +8413,12 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>81</v>
@@ -8732,7 +8432,7 @@
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>59</v>
@@ -8746,7 +8446,7 @@
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>81</v>
@@ -8760,7 +8460,7 @@
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>59</v>
@@ -8774,7 +8474,7 @@
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>59</v>
@@ -8783,12 +8483,12 @@
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>59</v>
@@ -8797,12 +8497,12 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
@@ -8811,7 +8511,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8825,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8839,12 +8539,12 @@
         <v>12</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>59</v>
@@ -8853,12 +8553,12 @@
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>59</v>
@@ -8867,12 +8567,12 @@
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>59</v>
@@ -8881,12 +8581,12 @@
         <v>176</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>59</v>
@@ -8895,12 +8595,12 @@
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>81</v>
@@ -8909,7 +8609,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8937,12 +8637,12 @@
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>81</v>
@@ -8951,12 +8651,12 @@
         <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>702</v>
+        <v>662</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>81</v>
@@ -8979,7 +8679,7 @@
         <v>29</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8998,7 +8698,7 @@
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>81</v>
@@ -9007,7 +8707,7 @@
         <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9024,9 +8724,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>59</v>
@@ -9035,12 +8735,12 @@
         <v>86</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>59</v>
@@ -9049,12 +8749,12 @@
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>81</v>
@@ -9068,7 +8768,7 @@
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>81</v>
@@ -9077,12 +8777,12 @@
         <v>29</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>81</v>
@@ -9091,12 +8791,12 @@
         <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>59</v>
@@ -9105,12 +8805,12 @@
         <v>12</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>59</v>
@@ -9119,12 +8819,12 @@
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>59</v>
@@ -9133,12 +8833,12 @@
         <v>12</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>59</v>
@@ -9147,7 +8847,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9166,7 +8866,7 @@
     </row>
     <row r="68" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>81</v>
@@ -9194,7 +8894,7 @@
     </row>
     <row r="70" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>81</v>
@@ -9222,7 +8922,7 @@
     </row>
     <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>81</v>
@@ -9231,7 +8931,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9250,7 +8950,7 @@
     </row>
     <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>81</v>
@@ -9259,12 +8959,12 @@
         <v>66</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>81</v>
@@ -9273,7 +8973,7 @@
         <v>66</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9287,21 +8987,21 @@
         <v>29</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9354,10 +9054,10 @@
         <v>81</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9385,7 +9085,7 @@
         <v>66</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9410,10 +9110,10 @@
         <v>81</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -9576,7 +9276,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9595,58 +9295,58 @@
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9660,21 +9360,21 @@
         <v>168</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9688,21 +9388,21 @@
         <v>168</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9716,21 +9416,21 @@
         <v>168</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9744,21 +9444,21 @@
         <v>168</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9772,21 +9472,21 @@
         <v>168</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9800,21 +9500,21 @@
         <v>168</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9828,21 +9528,21 @@
         <v>168</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9856,21 +9556,21 @@
         <v>168</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9884,21 +9584,21 @@
         <v>168</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9912,21 +9612,21 @@
         <v>168</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9940,21 +9640,21 @@
         <v>168</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9968,21 +9668,21 @@
         <v>168</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9996,21 +9696,21 @@
         <v>168</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10024,21 +9724,21 @@
         <v>168</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10052,21 +9752,21 @@
         <v>168</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10080,21 +9780,21 @@
         <v>168</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10108,21 +9808,21 @@
         <v>168</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10136,21 +9836,21 @@
         <v>168</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10164,21 +9864,21 @@
         <v>168</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10192,21 +9892,21 @@
         <v>168</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10220,21 +9920,21 @@
         <v>168</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10248,21 +9948,21 @@
         <v>168</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10276,21 +9976,21 @@
         <v>168</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10304,21 +10004,21 @@
         <v>168</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10332,21 +10032,21 @@
         <v>168</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10360,21 +10060,21 @@
         <v>168</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10388,21 +10088,21 @@
         <v>168</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10416,21 +10116,21 @@
         <v>168</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10444,21 +10144,21 @@
         <v>168</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10472,7 +10172,7 @@
         <v>168</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -10574,287 +10274,287 @@
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>59</v>
@@ -10863,12 +10563,12 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>59</v>
@@ -10877,12 +10577,12 @@
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>59</v>
@@ -10891,12 +10591,12 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>59</v>
@@ -10905,12 +10605,12 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
@@ -10919,12 +10619,12 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>59</v>
@@ -10933,12 +10633,12 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>59</v>
@@ -10947,12 +10647,12 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>59</v>
@@ -10961,12 +10661,12 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>59</v>
@@ -10975,12 +10675,12 @@
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>59</v>
@@ -10989,12 +10689,12 @@
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>59</v>
@@ -11003,12 +10703,12 @@
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -11017,12 +10717,12 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>59</v>
@@ -11031,12 +10731,12 @@
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>59</v>
@@ -11045,12 +10745,12 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>59</v>
@@ -11059,12 +10759,12 @@
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>59</v>
@@ -11073,12 +10773,12 @@
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>59</v>
@@ -11087,12 +10787,12 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>59</v>
@@ -11101,12 +10801,12 @@
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>59</v>
@@ -11115,12 +10815,12 @@
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>59</v>
@@ -11129,12 +10829,12 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
@@ -11143,12 +10843,12 @@
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>59</v>
@@ -11157,12 +10857,12 @@
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>59</v>
@@ -11171,12 +10871,12 @@
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>59</v>
@@ -11185,12 +10885,12 @@
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>59</v>
@@ -11199,12 +10899,12 @@
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>59</v>
@@ -11213,12 +10913,12 @@
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>59</v>
@@ -11227,12 +10927,12 @@
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>59</v>
@@ -11241,12 +10941,12 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>59</v>
@@ -11255,12 +10955,12 @@
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>59</v>
@@ -11269,12 +10969,12 @@
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>59</v>
@@ -11283,12 +10983,12 @@
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>59</v>
@@ -11297,12 +10997,12 @@
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>59</v>
@@ -11311,12 +11011,12 @@
         <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>59</v>
@@ -11325,12 +11025,12 @@
         <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>59</v>
@@ -11339,12 +11039,12 @@
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>59</v>
@@ -11353,12 +11053,12 @@
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>59</v>
@@ -11367,12 +11067,12 @@
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>59</v>
@@ -11381,12 +11081,12 @@
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>59</v>
@@ -11395,12 +11095,12 @@
         <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>842</v>
+        <v>802</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>59</v>
@@ -11409,7 +11109,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>843</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -11422,8 +11122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11438,10 +11138,10 @@
         <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>198</v>
@@ -11449,310 +11149,310 @@
     </row>
     <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>814</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C21" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -11765,7 +11465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -11777,322 +11477,322 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="B4" t="s">
-        <v>763</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="B5" t="s">
-        <v>765</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="B6" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="B7" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
       <c r="B8" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="B9" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
       <c r="B10" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="B11" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="B12" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="B13" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="B14" t="s">
-        <v>780</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
-        <v>782</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="B16" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="B17" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="B18" t="s">
-        <v>784</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>737</v>
+        <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="B21" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="B23" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>742</v>
+        <v>702</v>
       </c>
       <c r="B24" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="B25" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B26" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="B28" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="B29" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="B30" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
       <c r="B31" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="B32" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>751</v>
+        <v>711</v>
       </c>
       <c r="B33" t="s">
-        <v>797</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="B34" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="B35" t="s">
-        <v>800</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="B36" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="B37" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="B38" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="B39" t="s">
-        <v>801</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
       <c r="B40" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
